--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -368,9 +368,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -439,17 +446,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,7 +769,7 @@
   <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -768,836 +780,836 @@
     <col min="7" max="33" width="20.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>43601.522124201387</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="O2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="T2" s="3">
-        <v>1</v>
-      </c>
-      <c r="U2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="T2" s="6">
+        <v>1</v>
+      </c>
+      <c r="U2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>43601.697247557873</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="5" t="s">
+      <c r="O3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="T3" s="5">
-        <v>1</v>
-      </c>
-      <c r="U3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="T3" s="6">
+        <v>1</v>
+      </c>
+      <c r="U3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>43601.476590069447</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3" t="s">
+      <c r="O4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="T4" s="3">
-        <v>1</v>
-      </c>
-      <c r="U4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="T4" s="6">
+        <v>1</v>
+      </c>
+      <c r="U4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <v>43601.69842197917</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>0.59296216960000003</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="5" t="s">
+      <c r="O5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="6">
         <v>2</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <v>43601.712472916668</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" s="3" t="s">
+      <c r="O6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="T6" s="3">
-        <v>1</v>
-      </c>
-      <c r="U6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="T6" s="6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>43601.720827349527</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>0.66917877199999998</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R7" s="5" t="s">
+      <c r="O7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="6">
         <v>2</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <v>43601.720768333333</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8" s="3" t="s">
+      <c r="O8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S8" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="T8" s="3">
-        <v>1</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="T8" s="6">
+        <v>1</v>
+      </c>
+      <c r="U8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>43601.721024375001</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>0.93204941750000003</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="O9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9" s="5" t="s">
+      <c r="O9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="6">
         <v>2</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="7">
         <v>43601.720942164349</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R10" s="3" t="s">
+      <c r="O10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="S10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="T10" s="3">
-        <v>1</v>
-      </c>
-      <c r="U10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="T10" s="6">
+        <v>1</v>
+      </c>
+      <c r="U10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <v>43601.702580821759</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11" s="5" t="s">
+      <c r="O11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="T11" s="5">
-        <v>1</v>
-      </c>
-      <c r="U11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="T11" s="6">
+        <v>1</v>
+      </c>
+      <c r="U11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="7">
         <v>43601.69715310185</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R12" s="3" t="s">
+      <c r="O12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="S12" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="T12" s="3">
-        <v>1</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="T12" s="6">
+        <v>1</v>
+      </c>
+      <c r="U12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="7">
         <v>43601.702638113427</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
-      <c r="N13" s="5" t="s">
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R13" s="5" t="s">
+      <c r="O13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13" s="6">
         <v>2</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="7">
         <v>43601.716026087961</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="O14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="T14" s="3">
-        <v>1</v>
-      </c>
-      <c r="U14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="T14" s="6">
+        <v>1</v>
+      </c>
+      <c r="U14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="7">
         <v>43601.71350302083</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O15" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P15" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R15" s="5" t="s">
+      <c r="O15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="T15" s="5">
-        <v>1</v>
-      </c>
-      <c r="U15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="T15" s="6">
+        <v>1</v>
+      </c>
+      <c r="U15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="7">
         <v>43601.738329270833</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="6">
         <v>0.95220451350000002</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="O16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R16" s="3" t="s">
+      <c r="O16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="S16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="T16" s="3">
-        <v>1</v>
-      </c>
-      <c r="U16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="T16" s="6">
+        <v>1</v>
+      </c>
+      <c r="U16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="7">
         <v>43608.495635150473</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <v>0.48748972419999997</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O17" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P17" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R17" s="5" t="s">
+      <c r="O17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="S17" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T17" s="6">
         <v>2</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:21" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="7">
         <v>43608.49555673611</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R18" s="3" t="s">
+      <c r="O18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="S18" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="T18" s="3">
-        <v>1</v>
-      </c>
-      <c r="U18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="T18" s="6">
+        <v>1</v>
+      </c>
+      <c r="U18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="7">
         <v>43600.723546018518</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O19" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P19" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R19" s="5" t="s">
+      <c r="O19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="S19" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="T19" s="5">
-        <v>1</v>
-      </c>
-      <c r="U19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="T19" s="6">
+        <v>1</v>
+      </c>
+      <c r="U19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="7">
         <v>43600.723922141202</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="6">
         <v>0.48748972419999997</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R20" s="3" t="s">
+      <c r="O20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="S20" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="6">
         <v>2</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:21" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -12,15 +12,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Covered" sheetId="1" r:id="rId1"/>
-    <sheet name="Not_Covered" sheetId="2" r:id="rId2"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="106">
   <si>
     <t>Log ID</t>
   </si>
@@ -338,27 +337,6 @@
   </si>
   <si>
     <t>[{'dialog_node': 'node_17_1539889718141'}]</t>
-  </si>
-  <si>
-    <t>72a4fa3c-8f61-45fb-9ff3-4e800ac706a3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falhas e Alarmes </t>
-  </si>
-  <si>
-    <t>['Para que eu possa te ajudar, você poderia me informar o modelo da soft-starter?']</t>
-  </si>
-  <si>
-    <t>[{'entity': 'filtro_problema', 'location': [0, 16], 'value': 'Falhas e Alarmes', 'confidence': 1}]</t>
-  </si>
-  <si>
-    <t>'anything_else' node</t>
-  </si>
-  <si>
-    <t>['node_7_1551717596384', 'node_1_1551717596355', 'handler_12_1551717596384', 'node_1_1551717596355', 'node_3_1551717596384', 'node_16_1539889667718', 'handler_33_1539890595434', 'node_16_1539889667718', 'node_1_1541610708868']</t>
-  </si>
-  <si>
-    <t>[{'dialog_node': 'node_1_1541610708868'}]</t>
   </si>
 </sst>
 </file>
@@ -368,7 +346,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="15"/>
       <color theme="1"/>
@@ -390,36 +368,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBCCE2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEE6EF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -427,36 +385,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -769,7 +706,7 @@
   <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -781,1009 +718,837 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="3">
         <v>43601.522124201387</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O2" s="6" t="b">
+      <c r="N2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="P2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="P2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T2" s="6">
-        <v>1</v>
-      </c>
-      <c r="U2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="S2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="3">
         <v>43601.697247557873</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O3" s="6" t="b">
+      <c r="N3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="P3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="6" t="s">
+      <c r="P3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="S3" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T3" s="6">
-        <v>1</v>
-      </c>
-      <c r="U3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="S3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>43601.476590069447</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O4" s="6" t="b">
+      <c r="N4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="P4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="6" t="s">
+      <c r="P4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="S4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T4" s="6">
-        <v>1</v>
-      </c>
-      <c r="U4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="S4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>43601.69842197917</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="2">
         <v>0.59296216960000003</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="6" t="b">
+      <c r="N5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="P5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6" t="s">
+      <c r="P5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="S5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T5" s="6">
+      <c r="S5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T5" s="2">
         <v>2</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>43601.712472916668</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O6" s="6" t="b">
+      <c r="N6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="P6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" s="6" t="s">
+      <c r="P6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="S6" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T6" s="6">
-        <v>1</v>
-      </c>
-      <c r="U6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="S6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>43601.720827349527</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="2">
         <v>0.66917877199999998</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" s="6" t="b">
+      <c r="N7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="P7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R7" s="6" t="s">
+      <c r="P7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="S7" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T7" s="6">
+      <c r="S7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T7" s="2">
         <v>2</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>43601.720768333333</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N8" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O8" s="6" t="b">
+      <c r="N8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="P8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8" s="6" t="s">
+      <c r="P8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="S8" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T8" s="6">
-        <v>1</v>
-      </c>
-      <c r="U8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="S8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <v>43601.721024375001</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="2">
         <v>0.93204941750000003</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="O9" s="6" t="b">
+      <c r="O9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="P9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9" s="6" t="s">
+      <c r="P9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="2">
         <v>2</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <v>43601.720942164349</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O10" s="6" t="b">
+      <c r="N10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="P10" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R10" s="6" t="s">
+      <c r="P10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="S10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T10" s="6">
-        <v>1</v>
-      </c>
-      <c r="U10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="S10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1</v>
+      </c>
+      <c r="U10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <v>43601.702580821759</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O11" s="6" t="b">
+      <c r="N11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="P11" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11" s="6" t="s">
+      <c r="P11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="S11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T11" s="6">
-        <v>1</v>
-      </c>
-      <c r="U11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="S11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>43601.69715310185</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O12" s="6" t="b">
+      <c r="N12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="P12" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R12" s="6" t="s">
+      <c r="P12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="S12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T12" s="6">
-        <v>1</v>
-      </c>
-      <c r="U12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="S12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <v>43601.702638113427</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O13" s="6" t="b">
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="P13" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R13" s="6" t="s">
+      <c r="P13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="S13" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T13" s="6">
+      <c r="S13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T13" s="2">
         <v>2</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>43601.716026087961</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O14" s="6" t="b">
+      <c r="N14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="P14" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R14" s="6" t="s">
+      <c r="P14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="S14" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T14" s="6">
-        <v>1</v>
-      </c>
-      <c r="U14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="S14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T14" s="2">
+        <v>1</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>43601.71350302083</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="N15" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O15" s="6" t="b">
+      <c r="N15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="P15" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R15" s="6" t="s">
+      <c r="P15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="S15" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T15" s="6">
-        <v>1</v>
-      </c>
-      <c r="U15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="S15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T15" s="2">
+        <v>1</v>
+      </c>
+      <c r="U15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <v>43601.738329270833</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="2">
         <v>0.95220451350000002</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="O16" s="6" t="b">
+      <c r="O16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="P16" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R16" s="6" t="s">
+      <c r="P16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="S16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="T16" s="6">
-        <v>1</v>
-      </c>
-      <c r="U16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="T16" s="2">
+        <v>1</v>
+      </c>
+      <c r="U16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <v>43608.495635150473</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="2">
         <v>0.48748972419999997</v>
       </c>
-      <c r="N17" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O17" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P17" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R17" s="6" t="s">
+      <c r="N17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="S17" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T17" s="6">
+      <c r="S17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T17" s="2">
         <v>2</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="3">
         <v>43608.49555673611</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="N18" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O18" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P18" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R18" s="6" t="s">
+      <c r="N18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="S18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T18" s="6">
-        <v>1</v>
-      </c>
-      <c r="U18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="S18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T18" s="2">
+        <v>1</v>
+      </c>
+      <c r="U18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="3">
         <v>43600.723546018518</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="N19" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O19" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P19" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R19" s="6" t="s">
+      <c r="N19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="S19" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T19" s="6">
-        <v>1</v>
-      </c>
-      <c r="U19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="S19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T19" s="2">
+        <v>1</v>
+      </c>
+      <c r="U19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <v>43600.723922141202</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="2">
         <v>0.48748972419999997</v>
       </c>
-      <c r="N20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O20" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P20" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R20" s="6" t="s">
+      <c r="N20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="S20" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T20" s="6">
+      <c r="S20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T20" s="2">
         <v>2</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.69921875" customWidth="1"/>
-    <col min="2" max="3" width="30.69921875" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" customWidth="1"/>
-    <col min="6" max="7" width="35.69921875" customWidth="1"/>
-    <col min="8" max="34" width="20.69921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="4">
-        <v>43601.721070081017</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.92882103920000003</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="U2" s="3">
-        <v>3</v>
-      </c>
-      <c r="V2" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="110">
   <si>
     <t>Log ID</t>
   </si>
@@ -337,6 +337,18 @@
   </si>
   <si>
     <t>[{'dialog_node': 'node_17_1539889718141'}]</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>intenty</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -346,9 +358,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -389,13 +408,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -705,16 +728,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20:AG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.69921875" customWidth="1"/>
-    <col min="3" max="3" width="15.69921875" customWidth="1"/>
-    <col min="5" max="6" width="35.69921875" customWidth="1"/>
-    <col min="7" max="33" width="20.69921875" customWidth="1"/>
+    <col min="1" max="1" width="25.59765625" customWidth="1"/>
+    <col min="2" max="2" width="25.796875" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" customWidth="1"/>
+    <col min="4" max="4" width="5.8984375" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" customWidth="1"/>
+    <col min="6" max="6" width="32.69921875" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="11.19921875" customWidth="1"/>
+    <col min="11" max="11" width="12.796875" customWidth="1"/>
+    <col min="12" max="12" width="12.09765625" customWidth="1"/>
+    <col min="13" max="13" width="15.296875" customWidth="1"/>
+    <col min="14" max="14" width="57.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.296875" customWidth="1"/>
+    <col min="16" max="16" width="10.796875" customWidth="1"/>
+    <col min="17" max="17" width="7.8984375" customWidth="1"/>
+    <col min="18" max="18" width="16.5" customWidth="1"/>
+    <col min="19" max="19" width="14.796875" customWidth="1"/>
+    <col min="20" max="20" width="6.19921875" customWidth="1"/>
+    <col min="21" max="21" width="5.19921875" customWidth="1"/>
+    <col min="22" max="22" width="6.09765625" customWidth="1"/>
+    <col min="23" max="23" width="7.59765625" customWidth="1"/>
+    <col min="24" max="24" width="10.19921875" customWidth="1"/>
+    <col min="25" max="25" width="14.796875" customWidth="1"/>
+    <col min="26" max="26" width="9.19921875" customWidth="1"/>
+    <col min="27" max="27" width="10.296875" customWidth="1"/>
+    <col min="28" max="28" width="13.09765625" customWidth="1"/>
+    <col min="29" max="29" width="10.59765625" customWidth="1"/>
+    <col min="30" max="30" width="12.796875" customWidth="1"/>
+    <col min="31" max="31" width="8.8984375" customWidth="1"/>
+    <col min="32" max="32" width="14" customWidth="1"/>
+    <col min="33" max="33" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -796,7 +848,7 @@
       <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
       <c r="AB1" s="4" t="s">
@@ -828,7 +880,7 @@
       <c r="C2" s="3">
         <v>43601.522124201387</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>71</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -851,6 +903,27 @@
       </c>
       <c r="U2" s="2">
         <v>1</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -887,6 +960,27 @@
       <c r="U3" s="2">
         <v>1</v>
       </c>
+      <c r="V3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="4" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -922,6 +1016,27 @@
       <c r="U4" s="2">
         <v>1</v>
       </c>
+      <c r="V4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="5" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -966,6 +1081,27 @@
       <c r="U5" s="2">
         <v>2</v>
       </c>
+      <c r="V5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="6" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1001,6 +1137,27 @@
       <c r="U6" s="2">
         <v>1</v>
       </c>
+      <c r="V6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF6" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="7" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1045,6 +1202,27 @@
       <c r="U7" s="2">
         <v>2</v>
       </c>
+      <c r="V7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="8" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1080,6 +1258,27 @@
       <c r="U8" s="2">
         <v>1</v>
       </c>
+      <c r="V8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="9" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1124,6 +1323,27 @@
       <c r="U9" s="2">
         <v>2</v>
       </c>
+      <c r="V9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="10" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1159,6 +1379,27 @@
       <c r="U10" s="2">
         <v>1</v>
       </c>
+      <c r="V10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="11" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1194,6 +1435,27 @@
       <c r="U11" s="2">
         <v>1</v>
       </c>
+      <c r="V11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF11" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="12" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1229,6 +1491,27 @@
       <c r="U12" s="2">
         <v>1</v>
       </c>
+      <c r="V12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF12" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="13" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1273,6 +1556,27 @@
       <c r="U13" s="2">
         <v>2</v>
       </c>
+      <c r="V13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF13" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="14" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1308,6 +1612,27 @@
       <c r="U14" s="2">
         <v>1</v>
       </c>
+      <c r="V14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF14" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="15" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1343,6 +1668,27 @@
       <c r="U15" s="2">
         <v>1</v>
       </c>
+      <c r="V15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF15" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="16" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1387,8 +1733,29 @@
       <c r="U16" s="2">
         <v>1</v>
       </c>
+      <c r="V16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF16" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
@@ -1431,8 +1798,29 @@
       <c r="U17" s="2">
         <v>2</v>
       </c>
+      <c r="V17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF17" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
@@ -1466,8 +1854,29 @@
       <c r="U18" s="2">
         <v>1</v>
       </c>
+      <c r="V18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE18" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF18" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -1501,8 +1910,29 @@
       <c r="U19" s="2">
         <v>1</v>
       </c>
+      <c r="V19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF19" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="20" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
@@ -1545,8 +1975,29 @@
       <c r="U20" s="2">
         <v>2</v>
       </c>
+      <c r="V20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF20" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="21" spans="1:21" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:32" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="111">
   <si>
     <t>Log ID</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -358,9 +361,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -408,20 +418,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20:AG20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -769,7 +780,7 @@
     <col min="33" max="33" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -883,6 +894,9 @@
       <c r="F2" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="G2" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="N2" s="2" t="s">
         <v>93</v>
       </c>
@@ -939,6 +953,9 @@
       <c r="F3" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="G3" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="N3" s="2" t="s">
         <v>93</v>
       </c>
@@ -995,6 +1012,9 @@
       <c r="F4" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="G4" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="N4" s="2" t="s">
         <v>93</v>
       </c>
@@ -1116,6 +1136,9 @@
       <c r="F6" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="G6" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="N6" s="2" t="s">
         <v>93</v>
       </c>
@@ -1237,6 +1260,9 @@
       <c r="F8" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="G8" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="N8" s="2" t="s">
         <v>93</v>
       </c>
@@ -1358,6 +1384,9 @@
       <c r="F10" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="G10" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="N10" s="2" t="s">
         <v>93</v>
       </c>
@@ -1414,6 +1443,9 @@
       <c r="F11" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="G11" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="N11" s="2" t="s">
         <v>93</v>
       </c>
@@ -1470,6 +1502,9 @@
       <c r="F12" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="G12" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="N12" s="2" t="s">
         <v>93</v>
       </c>
@@ -1591,6 +1626,9 @@
       <c r="F14" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="G14" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="N14" s="2" t="s">
         <v>93</v>
       </c>
@@ -1647,6 +1685,9 @@
       <c r="F15" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="G15" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="N15" s="2" t="s">
         <v>93</v>
       </c>
@@ -1833,6 +1874,9 @@
       <c r="F18" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="G18" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="N18" s="2" t="s">
         <v>93</v>
       </c>
@@ -1889,6 +1933,9 @@
       <c r="F19" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="G19" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="N19" s="2" t="s">
         <v>93</v>
       </c>
@@ -1975,7 +2022,7 @@
       <c r="U20" s="2">
         <v>2</v>
       </c>
-      <c r="V20" s="5" t="s">
+      <c r="V20" s="7" t="s">
         <v>106</v>
       </c>
       <c r="W20" s="5" t="s">

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="110">
   <si>
     <t>Log ID</t>
   </si>
@@ -343,9 +343,6 @@
   </si>
   <si>
     <t>intenty</t>
-  </si>
-  <si>
-    <t>welcome</t>
   </si>
   <si>
     <t>N</t>
@@ -361,9 +358,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -418,20 +422,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -739,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -895,7 +900,7 @@
         <v>71</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>93</v>
@@ -927,17 +932,17 @@
       <c r="X2" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>108</v>
+      <c r="Y2" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -954,7 +959,7 @@
         <v>72</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>93</v>
@@ -986,17 +991,17 @@
       <c r="X3" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>108</v>
+      <c r="Y3" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1013,7 +1018,7 @@
         <v>73</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>93</v>
@@ -1045,17 +1050,17 @@
       <c r="X4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Y4" s="2" t="s">
-        <v>108</v>
+      <c r="Y4" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1110,17 +1115,17 @@
       <c r="X5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Y5" s="2" t="s">
-        <v>108</v>
+      <c r="Y5" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1137,7 +1142,7 @@
         <v>75</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>93</v>
@@ -1169,17 +1174,17 @@
       <c r="X6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Y6" s="2" t="s">
-        <v>108</v>
+      <c r="Y6" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1234,17 +1239,17 @@
       <c r="X7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>108</v>
+      <c r="Y7" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1261,7 +1266,7 @@
         <v>76</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>93</v>
@@ -1293,17 +1298,17 @@
       <c r="X8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Y8" s="2" t="s">
-        <v>108</v>
+      <c r="Y8" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF8" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1358,17 +1363,17 @@
       <c r="X9" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Y9" s="2" t="s">
-        <v>108</v>
+      <c r="Y9" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1385,7 +1390,7 @@
         <v>78</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>93</v>
@@ -1417,17 +1422,17 @@
       <c r="X10" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Y10" s="2" t="s">
-        <v>108</v>
+      <c r="Y10" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF10" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1444,7 +1449,7 @@
         <v>79</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>93</v>
@@ -1476,17 +1481,17 @@
       <c r="X11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Y11" s="2" t="s">
-        <v>108</v>
+      <c r="Y11" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE11" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF11" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1503,7 +1508,7 @@
         <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>93</v>
@@ -1535,17 +1540,17 @@
       <c r="X12" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Y12" s="2" t="s">
-        <v>108</v>
+      <c r="Y12" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE12" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF12" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1600,17 +1605,17 @@
       <c r="X13" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Y13" s="2" t="s">
-        <v>108</v>
+      <c r="Y13" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1627,7 +1632,7 @@
         <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>93</v>
@@ -1659,17 +1664,17 @@
       <c r="X14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Y14" s="2" t="s">
-        <v>108</v>
+      <c r="Y14" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1686,7 +1691,7 @@
         <v>83</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>93</v>
@@ -1718,17 +1723,17 @@
       <c r="X15" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Y15" s="2" t="s">
-        <v>108</v>
+      <c r="Y15" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF15" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1783,17 +1788,17 @@
       <c r="X16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Y16" s="2" t="s">
-        <v>108</v>
+      <c r="Y16" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:32" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1848,17 +1853,17 @@
       <c r="X17" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Y17" s="2" t="s">
-        <v>108</v>
+      <c r="Y17" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE17" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF17" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:32" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1875,7 +1880,7 @@
         <v>86</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>93</v>
@@ -1907,17 +1912,17 @@
       <c r="X18" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Y18" s="2" t="s">
-        <v>108</v>
+      <c r="Y18" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE18" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF18" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:32" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1934,7 +1939,7 @@
         <v>87</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>93</v>
@@ -1966,17 +1971,17 @@
       <c r="X19" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Y19" s="2" t="s">
-        <v>108</v>
+      <c r="Y19" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF19" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:32" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2031,17 +2036,17 @@
       <c r="X20" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Y20" s="2" t="s">
-        <v>108</v>
+      <c r="Y20" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF20" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:32" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -744,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <selection activeCell="Y2" sqref="Y2:Y20"/>
     </sheetView>
   </sheetViews>
@@ -933,7 +933,7 @@
         <v>107</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA2" s="5" t="s">
         <v>108</v>
@@ -992,7 +992,7 @@
         <v>107</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA3" s="5" t="s">
         <v>108</v>
@@ -1051,7 +1051,7 @@
         <v>107</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA4" s="5" t="s">
         <v>108</v>
@@ -1116,7 +1116,7 @@
         <v>107</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA5" s="5" t="s">
         <v>108</v>
@@ -1175,7 +1175,7 @@
         <v>107</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA6" s="5" t="s">
         <v>108</v>
@@ -1240,7 +1240,7 @@
         <v>107</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA7" s="5" t="s">
         <v>108</v>
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA8" s="5" t="s">
         <v>108</v>
@@ -1364,7 +1364,7 @@
         <v>107</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA9" s="5" t="s">
         <v>108</v>
@@ -1423,7 +1423,7 @@
         <v>107</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA10" s="5" t="s">
         <v>108</v>
@@ -1482,7 +1482,7 @@
         <v>107</v>
       </c>
       <c r="Y11" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA11" s="5" t="s">
         <v>108</v>
@@ -1541,7 +1541,7 @@
         <v>107</v>
       </c>
       <c r="Y12" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA12" s="5" t="s">
         <v>108</v>
@@ -1606,7 +1606,7 @@
         <v>107</v>
       </c>
       <c r="Y13" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA13" s="5" t="s">
         <v>108</v>
@@ -1665,7 +1665,7 @@
         <v>107</v>
       </c>
       <c r="Y14" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA14" s="5" t="s">
         <v>108</v>
@@ -1724,7 +1724,7 @@
         <v>107</v>
       </c>
       <c r="Y15" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA15" s="5" t="s">
         <v>108</v>
@@ -1789,7 +1789,7 @@
         <v>107</v>
       </c>
       <c r="Y16" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA16" s="5" t="s">
         <v>108</v>
@@ -1854,7 +1854,7 @@
         <v>107</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA17" s="5" t="s">
         <v>108</v>
@@ -1913,7 +1913,7 @@
         <v>107</v>
       </c>
       <c r="Y18" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA18" s="5" t="s">
         <v>108</v>
@@ -1972,7 +1972,7 @@
         <v>107</v>
       </c>
       <c r="Y19" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA19" s="5" t="s">
         <v>108</v>
@@ -2037,7 +2037,7 @@
         <v>107</v>
       </c>
       <c r="Y20" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA20" s="5" t="s">
         <v>108</v>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -342,13 +342,13 @@
     <t>Y</t>
   </si>
   <si>
-    <t>intenty</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>intent</t>
   </si>
 </sst>
 </file>
@@ -358,9 +358,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -422,22 +429,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y20"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -758,11 +767,11 @@
     <col min="6" max="6" width="32.69921875" customWidth="1"/>
     <col min="7" max="7" width="12.59765625" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="11.19921875" customWidth="1"/>
-    <col min="11" max="11" width="12.796875" customWidth="1"/>
-    <col min="12" max="12" width="12.09765625" customWidth="1"/>
-    <col min="13" max="13" width="15.296875" customWidth="1"/>
+    <col min="9" max="9" width="7.3984375" customWidth="1"/>
+    <col min="10" max="10" width="8.59765625" customWidth="1"/>
+    <col min="11" max="11" width="8.8984375" customWidth="1"/>
+    <col min="12" max="12" width="7.19921875" customWidth="1"/>
+    <col min="13" max="13" width="7.69921875" customWidth="1"/>
     <col min="14" max="14" width="57.8984375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.296875" customWidth="1"/>
     <col min="16" max="16" width="10.796875" customWidth="1"/>
@@ -900,7 +909,7 @@
         <v>71</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>93</v>
@@ -929,20 +938,20 @@
       <c r="W2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>107</v>
+      <c r="X2" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -959,7 +968,7 @@
         <v>72</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>93</v>
@@ -988,20 +997,20 @@
       <c r="W3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="X3" s="5" t="s">
-        <v>107</v>
+      <c r="X3" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="Y3" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1018,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>93</v>
@@ -1047,20 +1056,20 @@
       <c r="W4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="X4" s="5" t="s">
-        <v>107</v>
+      <c r="X4" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="Y4" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1112,20 +1121,20 @@
       <c r="W5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="X5" s="5" t="s">
-        <v>107</v>
+      <c r="X5" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="Y5" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1142,7 +1151,7 @@
         <v>75</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>93</v>
@@ -1171,20 +1180,20 @@
       <c r="W6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="X6" s="5" t="s">
-        <v>107</v>
+      <c r="X6" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="Y6" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1236,20 +1245,20 @@
       <c r="W7" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="X7" s="5" t="s">
-        <v>107</v>
+      <c r="X7" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="Y7" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1266,7 +1275,7 @@
         <v>76</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>93</v>
@@ -1295,20 +1304,20 @@
       <c r="W8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="X8" s="5" t="s">
-        <v>107</v>
+      <c r="X8" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="Y8" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1360,20 +1369,20 @@
       <c r="W9" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="X9" s="5" t="s">
-        <v>107</v>
+      <c r="X9" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="Y9" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1390,7 +1399,7 @@
         <v>78</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>93</v>
@@ -1419,20 +1428,20 @@
       <c r="W10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="X10" s="5" t="s">
-        <v>107</v>
+      <c r="X10" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="Y10" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF10" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1449,7 +1458,7 @@
         <v>79</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>93</v>
@@ -1478,20 +1487,20 @@
       <c r="W11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="X11" s="5" t="s">
-        <v>107</v>
+      <c r="X11" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="Y11" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE11" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF11" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1508,7 +1517,7 @@
         <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>93</v>
@@ -1537,20 +1546,20 @@
       <c r="W12" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="X12" s="5" t="s">
-        <v>107</v>
+      <c r="X12" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="Y12" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE12" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF12" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1602,20 +1611,20 @@
       <c r="W13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="X13" s="5" t="s">
-        <v>107</v>
+      <c r="X13" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="Y13" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1632,7 +1641,7 @@
         <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>93</v>
@@ -1661,20 +1670,20 @@
       <c r="W14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="X14" s="5" t="s">
-        <v>107</v>
+      <c r="X14" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="Y14" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1691,7 +1700,7 @@
         <v>83</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>93</v>
@@ -1720,20 +1729,20 @@
       <c r="W15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="X15" s="5" t="s">
-        <v>107</v>
+      <c r="X15" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="Y15" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF15" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:33" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1785,20 +1794,20 @@
       <c r="W16" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="X16" s="5" t="s">
-        <v>107</v>
+      <c r="X16" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="Y16" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:32" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1850,20 +1859,20 @@
       <c r="W17" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="X17" s="5" t="s">
-        <v>107</v>
+      <c r="X17" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="Y17" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE17" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF17" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:32" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1880,7 +1889,7 @@
         <v>86</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>93</v>
@@ -1909,20 +1918,20 @@
       <c r="W18" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="X18" s="5" t="s">
-        <v>107</v>
+      <c r="X18" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="Y18" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE18" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF18" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:32" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1939,7 +1948,7 @@
         <v>87</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>93</v>
@@ -1968,20 +1977,20 @@
       <c r="W19" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="X19" s="5" t="s">
-        <v>107</v>
+      <c r="X19" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="Y19" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF19" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:32" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2033,23 +2042,26 @@
       <c r="W20" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="X20" s="5" t="s">
-        <v>107</v>
+      <c r="X20" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="Y20" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF20" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:32" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X24" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="109">
   <si>
     <t>Log ID</t>
   </si>
@@ -343,9 +343,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>intent</t>
@@ -753,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -908,9 +905,7 @@
       <c r="F2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="G2" s="7"/>
       <c r="N2" s="2" t="s">
         <v>93</v>
       </c>
@@ -939,7 +934,7 @@
         <v>106</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>92</v>
@@ -967,9 +962,7 @@
       <c r="F3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="G3" s="7"/>
       <c r="N3" s="2" t="s">
         <v>93</v>
       </c>
@@ -998,7 +991,7 @@
         <v>106</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y3" s="8" t="s">
         <v>92</v>
@@ -1026,9 +1019,7 @@
       <c r="F4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="G4" s="7"/>
       <c r="N4" s="2" t="s">
         <v>93</v>
       </c>
@@ -1057,7 +1048,7 @@
         <v>106</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y4" s="8" t="s">
         <v>92</v>
@@ -1122,7 +1113,7 @@
         <v>106</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y5" s="8" t="s">
         <v>92</v>
@@ -1150,9 +1141,7 @@
       <c r="F6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="G6" s="7"/>
       <c r="N6" s="2" t="s">
         <v>93</v>
       </c>
@@ -1181,7 +1170,7 @@
         <v>106</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y6" s="8" t="s">
         <v>92</v>
@@ -1246,7 +1235,7 @@
         <v>106</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y7" s="8" t="s">
         <v>92</v>
@@ -1274,9 +1263,7 @@
       <c r="F8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="G8" s="7"/>
       <c r="N8" s="2" t="s">
         <v>93</v>
       </c>
@@ -1305,7 +1292,7 @@
         <v>106</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y8" s="8" t="s">
         <v>92</v>
@@ -1370,7 +1357,7 @@
         <v>106</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y9" s="8" t="s">
         <v>92</v>
@@ -1398,9 +1385,7 @@
       <c r="F10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="G10" s="7"/>
       <c r="N10" s="2" t="s">
         <v>93</v>
       </c>
@@ -1429,7 +1414,7 @@
         <v>106</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y10" s="8" t="s">
         <v>92</v>
@@ -1457,9 +1442,7 @@
       <c r="F11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="G11" s="7"/>
       <c r="N11" s="2" t="s">
         <v>93</v>
       </c>
@@ -1488,7 +1471,7 @@
         <v>106</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y11" s="8" t="s">
         <v>92</v>
@@ -1516,9 +1499,7 @@
       <c r="F12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="G12" s="7"/>
       <c r="N12" s="2" t="s">
         <v>93</v>
       </c>
@@ -1547,7 +1528,7 @@
         <v>106</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y12" s="8" t="s">
         <v>92</v>
@@ -1612,7 +1593,7 @@
         <v>106</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y13" s="8" t="s">
         <v>92</v>
@@ -1640,9 +1621,7 @@
       <c r="F14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="G14" s="7"/>
       <c r="N14" s="2" t="s">
         <v>93</v>
       </c>
@@ -1671,7 +1650,7 @@
         <v>106</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y14" s="8" t="s">
         <v>92</v>
@@ -1699,9 +1678,7 @@
       <c r="F15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="G15" s="7"/>
       <c r="N15" s="2" t="s">
         <v>93</v>
       </c>
@@ -1730,7 +1707,7 @@
         <v>106</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y15" s="8" t="s">
         <v>92</v>
@@ -1795,7 +1772,7 @@
         <v>106</v>
       </c>
       <c r="X16" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y16" s="8" t="s">
         <v>92</v>
@@ -1860,7 +1837,7 @@
         <v>106</v>
       </c>
       <c r="X17" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y17" s="8" t="s">
         <v>92</v>
@@ -1888,9 +1865,7 @@
       <c r="F18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="G18" s="7"/>
       <c r="N18" s="2" t="s">
         <v>93</v>
       </c>
@@ -1919,7 +1894,7 @@
         <v>106</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y18" s="8" t="s">
         <v>92</v>
@@ -1947,9 +1922,7 @@
       <c r="F19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="G19" s="7"/>
       <c r="N19" s="2" t="s">
         <v>93</v>
       </c>
@@ -1978,7 +1951,7 @@
         <v>106</v>
       </c>
       <c r="X19" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y19" s="8" t="s">
         <v>92</v>
@@ -2043,7 +2016,7 @@
         <v>106</v>
       </c>
       <c r="X20" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y20" s="8" t="s">
         <v>92</v>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2785" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="781">
   <si>
     <t>Log ID</t>
   </si>
@@ -2354,6 +2354,15 @@
   </si>
   <si>
     <t>itens_não_atendidos_pelo_bot</t>
+  </si>
+  <si>
+    <t>questoes_tec_solar</t>
+  </si>
+  <si>
+    <t>modo_sinal_PID</t>
+  </si>
+  <si>
+    <t>programa</t>
   </si>
 </sst>
 </file>
@@ -2363,9 +2372,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2441,26 +2457,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2767,9 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3007,6 +3022,9 @@
       <c r="W3" s="9" t="s">
         <v>774</v>
       </c>
+      <c r="AB3" s="6" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="4" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3057,6 +3075,9 @@
       <c r="W4" s="9" t="s">
         <v>774</v>
       </c>
+      <c r="AB4" s="6" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="5" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -3107,6 +3128,9 @@
       <c r="W5" s="9" t="s">
         <v>774</v>
       </c>
+      <c r="AB5" s="6" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="6" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -3157,6 +3181,9 @@
       <c r="W6" s="9" t="s">
         <v>774</v>
       </c>
+      <c r="AB6" s="6" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="7" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -3207,6 +3234,9 @@
       <c r="W7" s="9" t="s">
         <v>774</v>
       </c>
+      <c r="AB7" s="6" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="8" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -3257,6 +3287,9 @@
       <c r="W8" s="9" t="s">
         <v>774</v>
       </c>
+      <c r="AB8" s="6" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="9" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -3307,6 +3340,9 @@
       <c r="W9" s="9" t="s">
         <v>774</v>
       </c>
+      <c r="AB9" s="6" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="10" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -3357,6 +3393,9 @@
       <c r="W10" s="9" t="s">
         <v>774</v>
       </c>
+      <c r="AB10" s="6" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="11" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -3407,6 +3446,9 @@
       <c r="W11" s="9" t="s">
         <v>774</v>
       </c>
+      <c r="AB11" s="6" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="12" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -3457,6 +3499,9 @@
       <c r="W12" s="9" t="s">
         <v>774</v>
       </c>
+      <c r="AB12" s="6" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="13" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -3507,6 +3552,9 @@
       <c r="W13" s="9" t="s">
         <v>774</v>
       </c>
+      <c r="AB13" s="6" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="14" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -3557,6 +3605,9 @@
       <c r="W14" s="9" t="s">
         <v>774</v>
       </c>
+      <c r="AB14" s="6" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="15" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -3607,6 +3658,9 @@
       <c r="W15" s="9" t="s">
         <v>774</v>
       </c>
+      <c r="AB15" s="6" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="16" spans="1:33" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -3657,8 +3711,11 @@
       <c r="W16" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB16" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -3707,8 +3764,11 @@
       <c r="W17" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB17" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
@@ -3757,8 +3817,11 @@
       <c r="W18" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB18" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>50</v>
       </c>
@@ -3807,8 +3870,11 @@
       <c r="W19" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB19" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>51</v>
       </c>
@@ -3857,8 +3923,11 @@
       <c r="W20" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB20" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>52</v>
       </c>
@@ -3907,8 +3976,11 @@
       <c r="W21" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB21" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>53</v>
       </c>
@@ -3957,8 +4029,11 @@
       <c r="W22" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB22" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>54</v>
       </c>
@@ -4007,8 +4082,11 @@
       <c r="W23" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB23" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>55</v>
       </c>
@@ -4057,8 +4135,11 @@
       <c r="W24" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB24" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>56</v>
       </c>
@@ -4107,8 +4188,11 @@
       <c r="W25" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB25" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>57</v>
       </c>
@@ -4157,8 +4241,11 @@
       <c r="W26" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB26" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>58</v>
       </c>
@@ -4208,7 +4295,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>59</v>
       </c>
@@ -4258,7 +4345,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="29" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>60</v>
       </c>
@@ -4307,8 +4394,11 @@
       <c r="W29" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB29" s="6" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>61</v>
       </c>
@@ -4358,7 +4448,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="31" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>62</v>
       </c>
@@ -4408,7 +4498,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="32" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>63</v>
       </c>
@@ -4464,7 +4554,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>64</v>
       </c>
@@ -4514,7 +4604,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="34" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>65</v>
       </c>
@@ -4564,7 +4654,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="35" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>66</v>
       </c>
@@ -4614,7 +4704,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>67</v>
       </c>
@@ -4663,8 +4753,11 @@
       <c r="W36" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB36" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>68</v>
       </c>
@@ -4713,8 +4806,11 @@
       <c r="W37" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB37" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>69</v>
       </c>
@@ -4763,8 +4859,11 @@
       <c r="W38" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB38" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>70</v>
       </c>
@@ -4813,8 +4912,11 @@
       <c r="W39" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB39" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>71</v>
       </c>
@@ -4863,8 +4965,11 @@
       <c r="W40" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB40" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>72</v>
       </c>
@@ -4913,8 +5018,11 @@
       <c r="W41" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB41" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>73</v>
       </c>
@@ -4963,8 +5071,11 @@
       <c r="W42" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB42" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>74</v>
       </c>
@@ -5013,8 +5124,11 @@
       <c r="W43" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB43" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>75</v>
       </c>
@@ -5063,8 +5177,11 @@
       <c r="W44" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB44" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>76</v>
       </c>
@@ -5113,8 +5230,11 @@
       <c r="W45" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB45" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>77</v>
       </c>
@@ -5163,8 +5283,11 @@
       <c r="W46" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB46" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>78</v>
       </c>
@@ -5213,8 +5336,11 @@
       <c r="W47" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB47" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>79</v>
       </c>
@@ -5263,8 +5389,11 @@
       <c r="W48" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB48" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>80</v>
       </c>
@@ -5313,8 +5442,11 @@
       <c r="W49" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB49" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>81</v>
       </c>
@@ -5363,8 +5495,11 @@
       <c r="W50" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB50" s="6" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>82</v>
       </c>
@@ -5413,8 +5548,11 @@
       <c r="W51" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB51" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>83</v>
       </c>
@@ -5463,8 +5601,11 @@
       <c r="W52" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB52" s="6" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>84</v>
       </c>
@@ -5513,8 +5654,11 @@
       <c r="W53" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB53" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>85</v>
       </c>
@@ -5563,8 +5707,11 @@
       <c r="W54" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB54" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>86</v>
       </c>
@@ -5613,8 +5760,11 @@
       <c r="W55" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB55" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>87</v>
       </c>
@@ -5663,8 +5813,11 @@
       <c r="W56" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB56" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>88</v>
       </c>
@@ -5713,8 +5866,11 @@
       <c r="W57" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB57" s="11" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>89</v>
       </c>
@@ -5764,7 +5920,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="59" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>90</v>
       </c>
@@ -5814,7 +5970,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="60" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>91</v>
       </c>
@@ -5864,7 +6020,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="61" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>92</v>
       </c>
@@ -5920,7 +6076,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>93</v>
       </c>
@@ -5970,7 +6126,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="63" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>94</v>
       </c>
@@ -6020,7 +6176,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="64" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>95</v>
       </c>
@@ -6070,7 +6226,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>96</v>
       </c>
@@ -6119,9 +6275,13 @@
       <c r="W65" s="9" t="s">
         <v>774</v>
       </c>
+      <c r="AB65" s="6" t="s">
+        <v>779</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
